--- a/data/xls/2009-06-01/COMPLETED_UCB-Jan-Jun-2009-pdf.xlsx
+++ b/data/xls/2009-06-01/COMPLETED_UCB-Jan-Jun-2009-pdf.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Page 1 of 47</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="298">
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Page 1 of 47</t>
     </r>
   </si>
   <si>
@@ -31,7 +36,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Summary of Events Sponsored  by Member Companies:  Reporting Period (January - June 2009)).</t>
+      <t>Summary of Events Sponsored  by Member Companies:  Reporting Period (January - June 2009)).</t>
     </r>
   </si>
   <si>
@@ -41,7 +46,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Company Name:                     UCB Pharma</t>
+      <t>Company Name:                     UCB Pharma</t>
     </r>
   </si>
   <si>
@@ -51,16 +56,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Number of Events Held:       83</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">January 2009                                                                                                                                                                                                                                                                                                                                              Page 2 of 47</t>
+      <t>Number of Events Held:       83</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>January 2009                                                                                                                                                                                                                                                                                                                                              Page 2 of 47</t>
     </r>
   </si>
   <si>
@@ -88,7 +93,7 @@
         <sz val="6"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">including  </t>
+      <t>including  </t>
     </r>
     <r>
       <rPr>
@@ -106,7 +111,7 @@
         <sz val="6"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Venue</t>
+      <t>Venue</t>
     </r>
   </si>
   <si>
@@ -125,7 +130,7 @@
         <sz val="6"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of attendees</t>
+      <t>of attendees</t>
     </r>
   </si>
   <si>
@@ -135,7 +140,7 @@
         <sz val="6"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospitality provided</t>
+      <t>Hospitality provided</t>
     </r>
   </si>
   <si>
@@ -154,7 +159,7 @@
         <sz val="6"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">hospitality</t>
+      <t>hospitality</t>
     </r>
   </si>
   <si>
@@ -173,7 +178,7 @@
         <sz val="6"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">– number only</t>
+      <t>– number only</t>
     </r>
   </si>
   <si>
@@ -183,7 +188,7 @@
         <sz val="6"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Total cost of function</t>
+      <t>Total cost of function</t>
     </r>
   </si>
   <si>
@@ -193,7 +198,7 @@
         <sz val="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">No functions in January 2009.</t>
+      <t>No functions in January 2009.</t>
     </r>
   </si>
   <si>
@@ -235,7 +240,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
+      <t>Educational component: 1 hour</t>
     </r>
   </si>
   <si>
@@ -252,7 +257,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Southport, QLD 4215</t>
+      <t>Southport, QLD 4215</t>
     </r>
   </si>
   <si>
@@ -277,34 +282,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">&amp; Medical Residents</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Food &amp; Beverages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$143.91</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">16</t>
+      <t>&amp; Medical Residents</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Food &amp; Beverages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$143.91</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>16</t>
     </r>
   </si>
   <si>
@@ -337,43 +342,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Australia was not responsible for inviting attendees or organizing the educational content, the accommodation or travel. Educational component: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Royal Brisbane Hospital, Herston QLD 4006</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$268.45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">34</t>
+      <t>Australia was not responsible for inviting attendees or organizing the educational content, the accommodation or travel. Educational component: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Royal Brisbane Hospital, Herston QLD 4006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$268.45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>34</t>
     </r>
   </si>
   <si>
@@ -398,43 +403,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1.5 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Royal Perth Hospital, Wellington Street, Perth, WA 6000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurology Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$100.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">9</t>
+      <t>Educational component: 1.5 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Royal Perth Hospital, Wellington Street, Perth, WA 6000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurology Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$100.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>9</t>
     </r>
   </si>
   <si>
@@ -459,25 +464,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1.5 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Royal Perth Hospital, Wellington Street, WA 6000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurologist Registrars</t>
+      <t>Educational component: 1.5 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Royal Perth Hospital, Wellington Street, WA 6000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurologist Registrars</t>
     </r>
   </si>
   <si>
@@ -510,7 +515,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Australia was not responsible for inviting attendees or organizing the educational content, the accommodation or travel. Educational component: 1 hours</t>
+      <t>Australia was not responsible for inviting attendees or organizing the educational content, the accommodation or travel. Educational component: 1 hours</t>
     </r>
   </si>
   <si>
@@ -543,43 +548,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">NSW 2751</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurosurgeons, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Food &amp; Beverage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$165.45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">18</t>
+      <t>NSW 2751</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurosurgeons, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Food &amp; Beverage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$165.45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>18</t>
     </r>
   </si>
   <si>
@@ -612,7 +617,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">by UCB Educational component: 11.5 hours</t>
+      <t>by UCB Educational component: 11.5 hours</t>
     </r>
   </si>
   <si>
@@ -637,34 +642,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Sydney NSW 2000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Paeditricians</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Dinner for interstate delegates: 5872.65, Conference Dinner Saturday: 9416.80, Delegate Package (morning tea, lunch and afternoon tea included) Saturday &amp; Sunday 9,500.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">92</t>
+      <t>Sydney NSW 2000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Paeditricians</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Dinner for interstate delegates: 5872.65, Conference Dinner Saturday: 9416.80, Delegate Package (morning tea, lunch and afternoon tea included) Saturday &amp; Sunday 9,500.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>92</t>
     </r>
   </si>
   <si>
@@ -721,7 +726,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$14400.00, Communication Costs: $10450.00</t>
+      <t>$14400.00, Communication Costs: $10450.00</t>
     </r>
   </si>
   <si>
@@ -746,7 +751,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
+      <t>Educational component: 1 hour</t>
     </r>
   </si>
   <si>
@@ -763,34 +768,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, New Lambton Road, New Lambton, NSW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Paediatricians</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$148.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">30</t>
+      <t>Hospital, New Lambton Road, New Lambton, NSW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Paediatricians</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$148.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>30</t>
     </r>
   </si>
   <si>
@@ -832,34 +837,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Gold Coast Hospital, Southport, QLD 4215</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurology Registrars,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$162.55</t>
+      <t>Educational component: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Gold Coast Hospital, Southport, QLD 4215</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurology Registrars,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$162.55</t>
     </r>
   </si>
   <si>
@@ -892,25 +897,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Australia was not responsible for inviting attendees or organizing the educational content, the accommodation or travel. Educational component: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$180.64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">35</t>
+      <t>Australia was not responsible for inviting attendees or organizing the educational content, the accommodation or travel. Educational component: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$180.64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>35</t>
     </r>
   </si>
   <si>
@@ -935,88 +940,88 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Mater Children's Hospital, South Brisbane, QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists,  EEG Technicians, Neurology Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$186.64</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Townsville Hospital, Douglas QLD 4814</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$161.02</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Toowoomba Hospital, South Toowoomba  QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$150.80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">14</t>
+      <t>Educational component: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Mater Children's Hospital, South Brisbane, QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists,  EEG Technicians, Neurology Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$186.64</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Townsville Hospital, Douglas QLD 4814</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$161.02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Toowoomba Hospital, South Toowoomba  QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$150.80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>14</t>
     </r>
   </si>
   <si>
@@ -1049,25 +1054,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Australia was not responsible for inviting attendees or organizing the educational content, the accommodation or travel. Educational component: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">The Canberra Hospital, Woden, Canberra, ACT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$334.09</t>
+      <t>Australia was not responsible for inviting attendees or organizing the educational content, the accommodation or travel. Educational component: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>The Canberra Hospital, Woden, Canberra, ACT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$334.09</t>
     </r>
   </si>
   <si>
@@ -1100,43 +1105,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">component: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">St Vincent's Hospital, Darlinghurst,  NSW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$246.48</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">23</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$339.27</t>
+      <t>component: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>St Vincent's Hospital, Darlinghurst,  NSW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$246.48</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$339.27</t>
     </r>
   </si>
   <si>
@@ -1169,25 +1174,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">component: 2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$477.90</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">36</t>
+      <t>component: 2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$477.90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>36</t>
     </r>
   </si>
   <si>
@@ -1212,43 +1217,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Concord Hospital, Hospital Road, Concord, NSW 2139</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">food &amp; Beverage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$303.60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">25</t>
+      <t>Educational component: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Concord Hospital, Hospital Road, Concord, NSW 2139</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>food &amp; Beverage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$303.60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>25</t>
     </r>
   </si>
   <si>
@@ -1273,7 +1278,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
+      <t>Educational component: 1 hour</t>
     </r>
   </si>
   <si>
@@ -1290,25 +1295,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2065</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Geriatricians</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$326.41</t>
+      <t>2065</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Geriatricians</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$326.41</t>
     </r>
   </si>
   <si>
@@ -1341,52 +1346,52 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  20 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Sydney Children's Hospital, High Street, Randwick 2031</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Paediatricians, Paediatric Neurologists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">N/A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">90</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,980.00</t>
+      <t>Component:  20 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Sydney Children's Hospital, High Street, Randwick 2031</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Paediatricians, Paediatric Neurologists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,980.00</t>
     </r>
   </si>
   <si>
@@ -1403,25 +1408,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2145</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$550.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">100</t>
+      <t>2145</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$550.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>100</t>
     </r>
   </si>
   <si>
@@ -1438,7 +1443,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Wellington Street, WA 6000</t>
+      <t>Wellington Street, WA 6000</t>
     </r>
   </si>
   <si>
@@ -1455,7 +1460,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Neurology Registrars</t>
+      <t>Neurology Registrars</t>
     </r>
   </si>
   <si>
@@ -1480,7 +1485,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
+      <t>Educational component: 1 hour</t>
     </r>
   </si>
   <si>
@@ -1497,34 +1502,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2170</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Advanted trainee Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$160.30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">15</t>
+      <t>2170</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Advanted trainee Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$160.30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>15</t>
     </r>
   </si>
   <si>
@@ -1541,97 +1546,97 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2747</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurology Registrars, Advanced Trainee</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$199.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">St George Hospital, Korgarah Sydney NSW 2217</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurology Registrars, Neurosurgeons, Advanced Traniees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$207.30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">19</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Queen Elizabeth Hospital, Woodville, SA 5011</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists,  Clinical Trial Scientists, EEG Technicians, Administration  Staff, Resident Medical Officers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$186.37</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">17</t>
+      <t>2747</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurology Registrars, Advanced Trainee</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$199.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>St George Hospital, Korgarah Sydney NSW 2217</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurology Registrars, Neurosurgeons, Advanced Traniees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$207.30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Queen Elizabeth Hospital, Woodville, SA 5011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists,  Clinical Trial Scientists, EEG Technicians, Administration  Staff, Resident Medical Officers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$186.37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>17</t>
     </r>
   </si>
   <si>
@@ -1656,34 +1661,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1.5 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$99.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
+      <t>Educational component: 1.5 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$99.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10</t>
     </r>
   </si>
   <si>
@@ -1708,25 +1713,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 3 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$316.70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">26</t>
+      <t>Educational component: 3 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$316.70</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>26</t>
     </r>
   </si>
   <si>
@@ -1751,43 +1756,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Flinders Medical Centre, Bedford Park SA 5042</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurosurgeous Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$91.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
+      <t>Educational component: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Flinders Medical Centre, Bedford Park SA 5042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurosurgeous Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$91.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>8</t>
     </r>
   </si>
   <si>
@@ -1820,43 +1825,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">component: 0.5 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Royal Adelaide Hospital, Adelaide SA 5000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurology Registrars, EEG Technicians</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$203.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">20</t>
+      <t>component: 0.5 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Royal Adelaide Hospital, Adelaide SA 5000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurology Registrars, EEG Technicians</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$203.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>20</t>
     </r>
   </si>
   <si>
@@ -1889,7 +1894,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">component: 1 hour</t>
+      <t>component: 1 hour</t>
     </r>
   </si>
   <si>
@@ -1906,34 +1911,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4558</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$71.18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$71.81</t>
+      <t>4558</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$71.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$71.81</t>
     </r>
   </si>
   <si>
@@ -1958,7 +1963,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
+      <t>Educational component: 1 hour</t>
     </r>
   </si>
   <si>
@@ -1975,16 +1980,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2050</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$189.00</t>
+      <t>2050</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$189.00</t>
     </r>
   </si>
   <si>
@@ -2009,25 +2014,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$365.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">40</t>
+      <t>Educational component: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$365.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>40</t>
     </r>
   </si>
   <si>
@@ -2052,7 +2057,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
+      <t>Educational component: 1 hour</t>
     </r>
   </si>
   <si>
@@ -2069,16 +2074,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">3081</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$188.00</t>
+      <t>3081</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$188.00</t>
     </r>
   </si>
   <si>
@@ -2103,34 +2108,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$200.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$275.00</t>
+      <t>Educational component: 1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$200.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$275.00</t>
     </r>
   </si>
   <si>
@@ -2155,7 +2160,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational component: 1 hour</t>
+      <t>Educational component: 1 hour</t>
     </r>
   </si>
   <si>
@@ -2180,43 +2185,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Melbourne VIC 3050</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$363.18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Royal Melbourne Hospital, Parkville Melbourne VIC 3051</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$209.09</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">21</t>
+      <t>Melbourne VIC 3050</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$363.18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Royal Melbourne Hospital, Parkville Melbourne VIC 3051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$209.09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>21</t>
     </r>
   </si>
   <si>
@@ -2249,7 +2254,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">component: 1.5 hours</t>
+      <t>component: 1.5 hours</t>
     </r>
   </si>
   <si>
@@ -2266,43 +2271,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Applecross WA 6153</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Paediatricians, Neurology Registrars, Nurses</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$4,009.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Hospitality $4009; Room Hire $409; Data Projector $181; Honorariam  $1050</t>
+      <t>Applecross WA 6153</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Paediatricians, Neurology Registrars, Nurses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$4,009.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Hospitality $4009; Room Hire $409; Data Projector $181; Honorariam  $1050</t>
     </r>
   </si>
   <si>
@@ -2327,7 +2332,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational Component:  1.5 hours</t>
+      <t>Educational Component:  1.5 hours</t>
     </r>
   </si>
   <si>
@@ -2344,7 +2349,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Consultants</t>
+      <t>Consultants</t>
     </r>
   </si>
   <si>
@@ -2369,7 +2374,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational Component:   1.5 hours</t>
+      <t>Educational Component:   1.5 hours</t>
     </r>
   </si>
   <si>
@@ -2402,25 +2407,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Boxhill Hospital, Boxhill VIC 3128</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$218.18</t>
+      <t>Component:  2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Boxhill Hospital, Boxhill VIC 3128</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$218.18</t>
     </r>
   </si>
   <si>
@@ -2453,34 +2458,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Epworth Hospital, Slade Pharmacy, Erin Street Richmond 3121</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Pharmacists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$147.92</t>
+      <t>Component:  1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Epworth Hospital, Slade Pharmacy, Erin Street Richmond 3121</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Pharmacists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$147.92</t>
     </r>
   </si>
   <si>
@@ -2513,7 +2518,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -2530,7 +2535,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">3065</t>
+      <t>3065</t>
     </r>
   </si>
   <si>
@@ -2547,25 +2552,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Specialists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$125.45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">11</t>
+      <t>Specialists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$125.45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>11</t>
     </r>
   </si>
   <si>
@@ -2598,7 +2603,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  2 hours</t>
+      <t>Component:  2 hours</t>
     </r>
   </si>
   <si>
@@ -2615,16 +2620,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">3052</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$256.39</t>
+      <t>3052</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$256.39</t>
     </r>
   </si>
   <si>
@@ -2657,52 +2662,52 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Registrars Consultants, Pharmacists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$256.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">St Vincents, Victoria Street, Darlinghurst NSW 2010</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Neurology Registrars, Neurosurgeons, Advanced Trainees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$240.00</t>
+      <t>Component:  1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Registrars Consultants, Pharmacists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$256.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>St Vincents, Victoria Street, Darlinghurst NSW 2010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Neurology Registrars, Neurosurgeons, Advanced Trainees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$240.00</t>
     </r>
   </si>
   <si>
@@ -2735,7 +2740,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -2752,25 +2757,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4558</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Registered Nurses, EEG Technicians</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$83.55</t>
+      <t>4558</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Registered Nurses, EEG Technicians</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$83.55</t>
     </r>
   </si>
   <si>
@@ -2820,7 +2825,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -2837,34 +2842,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4510</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Paediatricians, Resistrars, Residents</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$161.82</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$252.60</t>
+      <t>4510</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Paediatricians, Resistrars, Residents</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$161.82</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$252.60</t>
     </r>
   </si>
   <si>
@@ -2897,7 +2902,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -2914,25 +2919,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2145</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">General Physicians, Rehab Physicians, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$122.30</t>
+      <t>2145</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>General Physicians, Rehab Physicians, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$122.30</t>
     </r>
   </si>
   <si>
@@ -2965,7 +2970,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -2982,7 +2987,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">5006</t>
+      <t>5006</t>
     </r>
   </si>
   <si>
@@ -2999,52 +3004,52 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">&amp; Trainees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$135.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Flinders Medical Centre, Beford Park, Flinders Drive 5042</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Paediatric Consultants,  Medical Students, Nurses, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$190.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Angaston Medical Centre, Murray Street, Angas SA</t>
+      <t>&amp; Trainees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$135.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Flinders Medical Centre, Beford Park, Flinders Drive 5042</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Paediatric Consultants,  Medical Students, Nurses, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$190.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Angaston Medical Centre, Murray Street, Angas SA</t>
     </r>
   </si>
   <si>
@@ -3061,61 +3066,61 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Students</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$96.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Modbury Hospital, Smart Rd, Modbury SA 5092</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Consultants, Registrars, Resident Medical Officer, Interns, Medical Students</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$184.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Northern Hospital, Cooper St, Epping VIC 3076</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$117.00</t>
+      <t>Students</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$96.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Modbury Hospital, Smart Rd, Modbury SA 5092</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Consultants, Registrars, Resident Medical Officer, Interns, Medical Students</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$184.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Northern Hospital, Cooper St, Epping VIC 3076</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$117.00</t>
     </r>
   </si>
   <si>
@@ -3164,34 +3169,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Educational Component:  28 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Christchurch Convention Centre, Christchurch,  NZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Consultant Neurologists, Advanced Neurology Trainees, Registrars and Nurses (with a Neurology interest)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">356</t>
+      <t>Educational Component:  28 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Christchurch Convention Centre, Christchurch,  NZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Consultant Neurologists, Advanced Neurology Trainees, Registrars and Nurses (with a Neurology interest)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>356</t>
     </r>
   </si>
   <si>
@@ -3208,7 +3213,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$82,375.10</t>
+      <t>$82,375.10</t>
     </r>
   </si>
   <si>
@@ -3241,7 +3246,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1.5 hours</t>
+      <t>Component:  1.5 hours</t>
     </r>
   </si>
   <si>
@@ -3258,16 +3263,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Wellington Street, Perth WA 6000</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Royal Perth Hospital, Wellingtons  Street, Perth WA 6000</t>
+      <t>Wellington Street, Perth WA 6000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Royal Perth Hospital, Wellingtons  Street, Perth WA 6000</t>
     </r>
   </si>
   <si>
@@ -3300,7 +3305,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  6 hours</t>
+      <t>Component:  6 hours</t>
     </r>
   </si>
   <si>
@@ -3317,34 +3322,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4101</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Paediatricians,  GPs, Registered Nurses</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$338.58</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">70</t>
+      <t>4101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Paediatricians,  GPs, Registered Nurses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$338.58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>70</t>
     </r>
   </si>
   <si>
@@ -3377,7 +3382,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  4 hours</t>
+      <t>Component:  4 hours</t>
     </r>
   </si>
   <si>
@@ -3402,34 +3407,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4051</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologist, Dieticians, Registered Nurses</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$369.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">38</t>
+      <t>4051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologist, Dieticians, Registered Nurses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$369.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>38</t>
     </r>
   </si>
   <si>
@@ -3478,7 +3483,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -3495,34 +3500,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">4102</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Geriatricians, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$136.85</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">12</t>
+      <t>4102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Geriatricians, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$136.85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>12</t>
     </r>
   </si>
   <si>
@@ -3555,7 +3560,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -3572,16 +3577,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2600</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$270.00</t>
+      <t>2600</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$270.00</t>
     </r>
   </si>
   <si>
@@ -3614,7 +3619,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  7 hours</t>
+      <t>Component:  7 hours</t>
     </r>
   </si>
   <si>
@@ -3639,34 +3644,34 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Flemington Rd, Parkville, VIC 3052</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Paediatric Neurologists, Paediatricians</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,000.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">120</t>
+      <t>Flemington Rd, Parkville, VIC 3052</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Paediatric Neurologists, Paediatricians</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,000.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>120</t>
     </r>
   </si>
   <si>
@@ -3699,43 +3704,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  0.5 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Hackham Surgery, Penneys Hill Rd, Hackham SA 5163</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">GPs, Nurses</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$34.50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
+      <t>Component:  0.5 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Hackham Surgery, Penneys Hill Rd, Hackham SA 5163</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>GPs, Nurses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$34.50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5</t>
     </r>
   </si>
   <si>
@@ -3768,43 +3773,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">SA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$80.00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Allcare Medical Centre Gavoler, Cheeck Ave, Gavoler SA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$63.00</t>
+      <t>SA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$80.00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Allcare Medical Centre Gavoler, Cheeck Ave, Gavoler SA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$63.00</t>
     </r>
   </si>
   <si>
@@ -3837,43 +3842,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">TQEH Department Neurology, Woodviklle Rd, Woodville SA 5011</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Consultants, Registrars, Resident Medical Officer, Interns,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Food&amp; Beverage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$180.00</t>
+      <t>Component:  1 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>TQEH Department Neurology, Woodviklle Rd, Woodville SA 5011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Consultants, Registrars, Resident Medical Officer, Interns,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Food&amp; Beverage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$180.00</t>
     </r>
   </si>
   <si>
@@ -3906,7 +3911,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  0.5 hour</t>
+      <t>Component:  0.5 hour</t>
     </r>
   </si>
   <si>
@@ -3923,16 +3928,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">5163</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$75.70</t>
+      <t>5163</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$75.70</t>
     </r>
   </si>
   <si>
@@ -3965,7 +3970,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -3982,25 +3987,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">5011</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Consultants, Registered Medical Officer, Interns, Registrars, GPs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$120.00</t>
+      <t>5011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Consultants, Registered Medical Officer, Interns, Registrars, GPs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$120.00</t>
     </r>
   </si>
   <si>
@@ -4033,7 +4038,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -4050,16 +4055,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">5043</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Nureses</t>
+      <t>5043</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Nureses</t>
     </r>
   </si>
   <si>
@@ -4076,25 +4081,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">5112</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Paediatric Consultants, Registrars, Resident Medical Officer, Interns</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$115.00</t>
+      <t>5112</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Paediatric Consultants, Registrars, Resident Medical Officer, Interns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$115.00</t>
     </r>
   </si>
   <si>
@@ -4127,7 +4132,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -4144,7 +4149,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">3084</t>
+      <t>3084</t>
     </r>
   </si>
   <si>
@@ -4161,16 +4166,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Coordinators</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$108.00</t>
+      <t>Coordinators</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$108.00</t>
     </r>
   </si>
   <si>
@@ -4203,25 +4208,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  2 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Royal Children's Hospital, Flemington Rd Parkville 3052</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$72.00</t>
+      <t>Component:  2 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Royal Children's Hospital, Flemington Rd Parkville 3052</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$72.00</t>
     </r>
   </si>
   <si>
@@ -4254,7 +4259,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  2 hours</t>
+      <t>Component:  2 hours</t>
     </r>
   </si>
   <si>
@@ -4279,16 +4284,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Richmond, VIC 3121</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$2,375.00</t>
+      <t>Richmond, VIC 3121</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$2,375.00</t>
     </r>
   </si>
   <si>
@@ -4329,7 +4334,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$500.00</t>
+      <t>$500.00</t>
     </r>
   </si>
   <si>
@@ -4362,16 +4367,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Western Hospital Footscray Melbourne, Gordon Street, Footscray VIC 3011</t>
+      <t>Component:  1 hours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Western Hospital Footscray Melbourne, Gordon Street, Footscray VIC 3011</t>
     </r>
   </si>
   <si>
@@ -4404,43 +4409,43 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  7 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Mangroves Café, Bunbury WA 6231</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">GPs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,500.00</t>
+      <t>Component:  7 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Mangroves Café, Bunbury WA 6231</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>GPs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,500.00</t>
     </r>
   </si>
   <si>
@@ -4473,16 +4478,16 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  7 hour</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Monash Medical Centre, Clayton Rd, Clayton VIC 3168</t>
+      <t>Component:  7 hour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Monash Medical Centre, Clayton Rd, Clayton VIC 3168</t>
     </r>
   </si>
   <si>
@@ -4515,7 +4520,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  14 hour</t>
+      <t>Component:  14 hour</t>
     </r>
   </si>
   <si>
@@ -4540,25 +4545,25 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">3065</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Neurologists, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$500.00</t>
+      <t>3065</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Neurologists, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$500.00</t>
     </r>
   </si>
   <si>
@@ -4591,7 +4596,7 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Component:  1 hour</t>
+      <t>Component:  1 hour</t>
     </r>
   </si>
   <si>
@@ -4608,198 +4613,54 @@
         <sz val="7"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">2010</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Page 47 of 47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Number of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">events reported</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Hours of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Education</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total CPD/CME or
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">other points</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Number of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Attendees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Cost of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Hospitality</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Cost of Function</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">83</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">193.5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2375</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">46595.25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">261473.72</t>
+      <t>2010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>60</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="#000000"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="6"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4885,40 +4746,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5214,90 +5075,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135:XFD142"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="15.333333"/>
-    <col min="2" max="2" customWidth="1" width="15.555556"/>
-    <col min="3" max="3" customWidth="1" width="15.555556"/>
-    <col min="4" max="4" customWidth="1" width="15.555556"/>
-    <col min="5" max="5" customWidth="1" width="15.555556"/>
-    <col min="6" max="6" customWidth="1" width="15.555556"/>
-    <col min="7" max="7" customWidth="1" width="2"/>
-    <col min="8" max="8" customWidth="1" width="13.333333"/>
-    <col min="9" max="9" customWidth="1" width="54.888889"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" customHeight="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" ht="9" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-    </row>
-    <row r="2" spans="1:9" ht="9" customHeight="1">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="9" customHeight="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-    </row>
-    <row r="3" spans="1:9" ht="9" customHeight="1">
-      <c r="A3" s="0" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="9" customHeight="1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-    </row>
-    <row r="4" spans="1:9" ht="9" customHeight="1">
-      <c r="A4" s="0" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="9" customHeight="1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-    </row>
-    <row r="5" spans="1:9" ht="9" customHeight="1">
-      <c r="A5" s="0" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="9" customHeight="1">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-    </row>
-    <row r="6" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="6" spans="1:8" ht="58" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5316,26 +5135,24 @@
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="0"/>
-    </row>
-    <row r="7" spans="1:9" ht="10" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="10" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="0"/>
-    </row>
-    <row r="8" spans="1:9" ht="58" customHeight="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="58" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5354,63 +5171,60 @@
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="0"/>
-    </row>
-    <row r="9" spans="1:9" ht="144" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="144" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="0"/>
-    </row>
-    <row r="10" spans="1:9" ht="144" customHeight="1">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="144" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="0"/>
-    </row>
-    <row r="11" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="11" spans="1:8" ht="58" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5429,63 +5243,60 @@
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="0"/>
-    </row>
-    <row r="12" spans="1:9" ht="154" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="154" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="0"/>
-    </row>
-    <row r="13" spans="1:9" ht="153" customHeight="1">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="153" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="0"/>
-    </row>
-    <row r="14" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="14" spans="1:8" ht="58" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -5504,38 +5315,36 @@
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="0"/>
-    </row>
-    <row r="15" spans="1:9" ht="139" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="139" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="0"/>
-    </row>
-    <row r="16" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="16" spans="1:8" ht="58" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5554,38 +5363,36 @@
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="0"/>
-    </row>
-    <row r="17" spans="1:9" ht="272" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="272" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="0"/>
-    </row>
-    <row r="18" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="18" spans="1:8" ht="58" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -5604,63 +5411,60 @@
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="0"/>
-    </row>
-    <row r="19" spans="1:9" ht="144" customHeight="1">
-      <c r="A19" s="7" t="s">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="144" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="0"/>
-    </row>
-    <row r="20" spans="1:9" ht="144" customHeight="1">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="144" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="0"/>
-    </row>
-    <row r="21" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="21" spans="1:8" ht="58" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -5679,63 +5483,60 @@
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="0"/>
-    </row>
-    <row r="22" spans="1:9" ht="154" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="154" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="0"/>
-    </row>
-    <row r="23" spans="1:9" ht="153" customHeight="1">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="153" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>59</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="0"/>
-    </row>
-    <row r="24" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="24" spans="1:8" ht="58" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -5754,63 +5555,60 @@
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="0"/>
-    </row>
-    <row r="25" spans="1:9" ht="145" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="145" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="0"/>
-    </row>
-    <row r="26" spans="1:9" ht="144" customHeight="1">
-      <c r="A26" s="7" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="144" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>64</v>
       </c>
       <c r="H26" s="9"/>
-      <c r="I26" s="0"/>
-    </row>
-    <row r="27" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="27" spans="1:8" ht="58" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -5829,63 +5627,60 @@
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="0"/>
-    </row>
-    <row r="28" spans="1:9" ht="154" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="154" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>68</v>
       </c>
       <c r="H28" s="9"/>
-      <c r="I28" s="0"/>
-    </row>
-    <row r="29" spans="1:9" ht="153" customHeight="1">
-      <c r="A29" s="7" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="153" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H29" s="9"/>
-      <c r="I29" s="0"/>
-    </row>
-    <row r="30" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="30" spans="1:8" ht="58" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -5904,63 +5699,60 @@
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="0"/>
-    </row>
-    <row r="31" spans="1:9" ht="154" customHeight="1">
-      <c r="A31" s="7" t="s">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="154" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H31" s="9"/>
-      <c r="I31" s="0"/>
-    </row>
-    <row r="32" spans="1:9" ht="162" customHeight="1">
-      <c r="A32" s="7" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="162" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="7" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="9"/>
-      <c r="I32" s="0"/>
-    </row>
-    <row r="33" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="33" spans="1:8" ht="58" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5979,63 +5771,60 @@
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="0"/>
-    </row>
-    <row r="34" spans="1:9" ht="145" customHeight="1">
-      <c r="A34" s="7" t="s">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="145" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H34" s="9"/>
-      <c r="I34" s="0"/>
-    </row>
-    <row r="35" spans="1:9" ht="144" customHeight="1">
-      <c r="A35" s="7" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="144" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="7" t="s">
         <v>85</v>
       </c>
       <c r="H35" s="9"/>
-      <c r="I35" s="0"/>
-    </row>
-    <row r="36" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="36" spans="1:8" ht="58" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -6054,63 +5843,60 @@
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="0"/>
-    </row>
-    <row r="37" spans="1:9" ht="154" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="154" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H37" s="9"/>
-      <c r="I37" s="0"/>
-    </row>
-    <row r="38" spans="1:9" ht="153" customHeight="1">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="38" spans="1:8" ht="153" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="9"/>
-      <c r="I38" s="0"/>
-    </row>
-    <row r="39" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="39" spans="1:8" ht="58" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -6129,63 +5915,60 @@
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="0"/>
-    </row>
-    <row r="40" spans="1:9" ht="154" customHeight="1">
-      <c r="A40" s="7" t="s">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="154" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H40" s="9"/>
-      <c r="I40" s="0"/>
-    </row>
-    <row r="41" spans="1:9" ht="153" customHeight="1">
-      <c r="A41" s="7" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="153" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H41" s="9"/>
-      <c r="I41" s="0"/>
-    </row>
-    <row r="42" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="42" spans="1:8" ht="58" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -6204,63 +5987,60 @@
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="0"/>
-    </row>
-    <row r="43" spans="1:9" ht="171" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="171" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="7" t="s">
         <v>91</v>
       </c>
       <c r="H43" s="9"/>
-      <c r="I43" s="0"/>
-    </row>
-    <row r="44" spans="1:9" ht="153" customHeight="1">
-      <c r="A44" s="7" t="s">
+    </row>
+    <row r="44" spans="1:8" ht="153" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="7" t="s">
         <v>93</v>
       </c>
       <c r="H44" s="9"/>
-      <c r="I44" s="0"/>
-    </row>
-    <row r="45" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="45" spans="1:8" ht="58" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -6279,63 +6059,60 @@
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="0"/>
-    </row>
-    <row r="46" spans="1:9" ht="153" customHeight="1">
-      <c r="A46" s="7" t="s">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="153" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H46" s="9"/>
-      <c r="I46" s="0"/>
-    </row>
-    <row r="47" spans="1:9" ht="144" customHeight="1">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="144" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H47" s="9"/>
-      <c r="I47" s="0"/>
-    </row>
-    <row r="48" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="48" spans="1:8" ht="58" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -6354,63 +6131,60 @@
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="0"/>
-    </row>
-    <row r="49" spans="1:9" ht="145" customHeight="1">
-      <c r="A49" s="7" t="s">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" ht="145" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H49" s="9"/>
-      <c r="I49" s="0"/>
-    </row>
-    <row r="50" spans="1:9" ht="144" customHeight="1">
-      <c r="A50" s="7" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="144" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="7" t="s">
         <v>107</v>
       </c>
       <c r="H50" s="9"/>
-      <c r="I50" s="0"/>
-    </row>
-    <row r="51" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="51" spans="1:8" ht="58" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -6429,63 +6203,60 @@
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="0"/>
-    </row>
-    <row r="52" spans="1:9" ht="145" customHeight="1">
-      <c r="A52" s="7" t="s">
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" ht="145" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="7" t="s">
         <v>111</v>
       </c>
       <c r="H52" s="9"/>
-      <c r="I52" s="0"/>
-    </row>
-    <row r="53" spans="1:9" ht="153" customHeight="1">
-      <c r="A53" s="7" t="s">
+    </row>
+    <row r="53" spans="1:8" ht="153" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H53" s="11"/>
-      <c r="I53" s="0"/>
-    </row>
-    <row r="54" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="54" spans="1:8" ht="58" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -6504,63 +6275,60 @@
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="0"/>
-    </row>
-    <row r="55" spans="1:9" ht="154" customHeight="1">
-      <c r="A55" s="7" t="s">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" ht="154" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="7" t="s">
         <v>118</v>
       </c>
       <c r="H55" s="9"/>
-      <c r="I55" s="0"/>
-    </row>
-    <row r="56" spans="1:9" ht="144" customHeight="1">
-      <c r="A56" s="7" t="s">
+    </row>
+    <row r="56" spans="1:8" ht="144" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="0"/>
-    </row>
-    <row r="57" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="57" spans="1:8" ht="58" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -6579,63 +6347,60 @@
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="0"/>
-    </row>
-    <row r="58" spans="1:9" ht="162" customHeight="1">
-      <c r="A58" s="7" t="s">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" ht="162" customHeight="1">
+      <c r="A58" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="0"/>
-    </row>
-    <row r="59" spans="1:9" ht="153" customHeight="1">
-      <c r="A59" s="7" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="153" customHeight="1">
+      <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>134</v>
       </c>
       <c r="H59" s="11"/>
-      <c r="I59" s="0"/>
-    </row>
-    <row r="60" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="60" spans="1:8" ht="58" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -6654,63 +6419,60 @@
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="0"/>
-    </row>
-    <row r="61" spans="1:9" ht="145" customHeight="1">
-      <c r="A61" s="7" t="s">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" ht="145" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="7" t="s">
         <v>137</v>
       </c>
       <c r="H61" s="9"/>
-      <c r="I61" s="0"/>
-    </row>
-    <row r="62" spans="1:9" ht="136" customHeight="1">
-      <c r="A62" s="7" t="s">
+    </row>
+    <row r="62" spans="1:8" ht="136" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="7" t="s">
         <v>139</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="0"/>
-    </row>
-    <row r="63" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="63" spans="1:8" ht="58" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -6729,63 +6491,60 @@
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="0"/>
-    </row>
-    <row r="64" spans="1:9" ht="145" customHeight="1">
-      <c r="A64" s="7" t="s">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" ht="145" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="0"/>
-    </row>
-    <row r="65" spans="1:9" ht="136" customHeight="1">
-      <c r="A65" s="7" t="s">
+    </row>
+    <row r="65" spans="1:8" ht="136" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="0"/>
-    </row>
-    <row r="66" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="66" spans="1:8" ht="58" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -6804,38 +6563,36 @@
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="0"/>
-    </row>
-    <row r="67" spans="1:9" ht="145" customHeight="1">
-      <c r="A67" s="7" t="s">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" ht="145" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="7" t="s">
         <v>147</v>
       </c>
       <c r="H67" s="9"/>
-      <c r="I67" s="0"/>
-    </row>
-    <row r="68" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="68" spans="1:8" ht="58" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -6854,63 +6611,60 @@
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="0"/>
-    </row>
-    <row r="69" spans="1:9" ht="136" customHeight="1">
-      <c r="A69" s="7" t="s">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" ht="136" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="7" t="s">
         <v>150</v>
       </c>
       <c r="H69" s="9"/>
-      <c r="I69" s="0"/>
-    </row>
-    <row r="70" spans="1:9" ht="136" customHeight="1">
-      <c r="A70" s="7" t="s">
+    </row>
+    <row r="70" spans="1:8" ht="136" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="7" t="s">
         <v>152</v>
       </c>
       <c r="H70" s="9"/>
-      <c r="I70" s="0"/>
-    </row>
-    <row r="71" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="71" spans="1:8" ht="58" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -6929,63 +6683,60 @@
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="0"/>
-    </row>
-    <row r="72" spans="1:9" ht="179" customHeight="1">
-      <c r="A72" s="7" t="s">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" ht="179" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>159</v>
       </c>
       <c r="H72" s="11"/>
-      <c r="I72" s="0"/>
-    </row>
-    <row r="73" spans="1:9" ht="153" customHeight="1">
-      <c r="A73" s="7" t="s">
+    </row>
+    <row r="73" spans="1:8" ht="153" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H73" s="11"/>
-      <c r="I73" s="0"/>
-    </row>
-    <row r="74" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="74" spans="1:8" ht="58" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -7004,63 +6755,60 @@
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="0"/>
-    </row>
-    <row r="75" spans="1:9" ht="154" customHeight="1">
-      <c r="A75" s="7" t="s">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" ht="154" customHeight="1">
+      <c r="A75" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H75" s="11"/>
-      <c r="I75" s="0"/>
-    </row>
-    <row r="76" spans="1:9" ht="162" customHeight="1">
-      <c r="A76" s="7" t="s">
+    </row>
+    <row r="76" spans="1:8" ht="162" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="7" t="s">
         <v>165</v>
       </c>
       <c r="H76" s="9"/>
-      <c r="I76" s="0"/>
-    </row>
-    <row r="77" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="77" spans="1:8" ht="58" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -7079,63 +6827,60 @@
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="0"/>
-    </row>
-    <row r="78" spans="1:9" ht="154" customHeight="1">
-      <c r="A78" s="7" t="s">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" ht="154" customHeight="1">
+      <c r="A78" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="7" t="s">
         <v>169</v>
       </c>
       <c r="H78" s="9"/>
-      <c r="I78" s="0"/>
-    </row>
-    <row r="79" spans="1:9" ht="144" customHeight="1">
-      <c r="A79" s="7" t="s">
+    </row>
+    <row r="79" spans="1:8" ht="144" customHeight="1">
+      <c r="A79" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="7" t="s">
         <v>173</v>
       </c>
       <c r="H79" s="9"/>
-      <c r="I79" s="0"/>
-    </row>
-    <row r="80" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="80" spans="1:8" ht="58" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -7154,63 +6899,60 @@
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="0"/>
-    </row>
-    <row r="81" spans="1:9" ht="154" customHeight="1">
-      <c r="A81" s="7" t="s">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" ht="154" customHeight="1">
+      <c r="A81" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="7" t="s">
         <v>177</v>
       </c>
       <c r="H81" s="9"/>
-      <c r="I81" s="0"/>
-    </row>
-    <row r="82" spans="1:9" ht="144" customHeight="1">
-      <c r="A82" s="7" t="s">
+    </row>
+    <row r="82" spans="1:8" ht="144" customHeight="1">
+      <c r="A82" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="7" t="s">
         <v>180</v>
       </c>
       <c r="H82" s="9"/>
-      <c r="I82" s="0"/>
-    </row>
-    <row r="83" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="83" spans="1:8" ht="58" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -7229,63 +6971,60 @@
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="0"/>
-    </row>
-    <row r="84" spans="1:9" ht="145" customHeight="1">
-      <c r="A84" s="7" t="s">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" ht="145" customHeight="1">
+      <c r="A84" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="7" t="s">
         <v>183</v>
       </c>
       <c r="H84" s="9"/>
-      <c r="I84" s="0"/>
-    </row>
-    <row r="85" spans="1:9" ht="136" customHeight="1">
-      <c r="A85" s="7" t="s">
+    </row>
+    <row r="85" spans="1:8" ht="136" customHeight="1">
+      <c r="A85" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>187</v>
       </c>
       <c r="H85" s="11"/>
-      <c r="I85" s="0"/>
-    </row>
-    <row r="86" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="86" spans="1:8" ht="58" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -7304,63 +7043,60 @@
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H86" s="4"/>
-      <c r="I86" s="0"/>
-    </row>
-    <row r="87" spans="1:9" ht="145" customHeight="1">
-      <c r="A87" s="7" t="s">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" ht="145" customHeight="1">
+      <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="7" t="s">
         <v>191</v>
       </c>
       <c r="H87" s="9"/>
-      <c r="I87" s="0"/>
-    </row>
-    <row r="88" spans="1:9" ht="153" customHeight="1">
-      <c r="A88" s="7" t="s">
+    </row>
+    <row r="88" spans="1:8" ht="153" customHeight="1">
+      <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="7" t="s">
         <v>192</v>
       </c>
       <c r="H88" s="9"/>
-      <c r="I88" s="0"/>
-    </row>
-    <row r="89" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="89" spans="1:8" ht="58" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -7379,63 +7115,60 @@
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="0"/>
-    </row>
-    <row r="90" spans="1:9" ht="154" customHeight="1">
-      <c r="A90" s="7" t="s">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" ht="154" customHeight="1">
+      <c r="A90" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="7" t="s">
         <v>196</v>
       </c>
       <c r="H90" s="9"/>
-      <c r="I90" s="0"/>
-    </row>
-    <row r="91" spans="1:9" ht="136" customHeight="1">
-      <c r="A91" s="7" t="s">
+    </row>
+    <row r="91" spans="1:8" ht="136" customHeight="1">
+      <c r="A91" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H91" s="9"/>
-      <c r="I91" s="0"/>
-    </row>
-    <row r="92" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="92" spans="1:8" ht="58" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -7454,63 +7187,60 @@
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="0"/>
-    </row>
-    <row r="93" spans="1:9" ht="136" customHeight="1">
-      <c r="A93" s="7" t="s">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="136" customHeight="1">
+      <c r="A93" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="7" t="s">
         <v>203</v>
       </c>
       <c r="H93" s="9"/>
-      <c r="I93" s="0"/>
-    </row>
-    <row r="94" spans="1:9" ht="153" customHeight="1">
-      <c r="A94" s="7" t="s">
+    </row>
+    <row r="94" spans="1:8" ht="153" customHeight="1">
+      <c r="A94" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>206</v>
       </c>
       <c r="H94" s="11"/>
-      <c r="I94" s="0"/>
-    </row>
-    <row r="95" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="95" spans="1:8" ht="58" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -7529,63 +7259,60 @@
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="4"/>
-      <c r="I95" s="0"/>
-    </row>
-    <row r="96" spans="1:9" ht="145" customHeight="1">
-      <c r="A96" s="7" t="s">
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" ht="145" customHeight="1">
+      <c r="A96" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H96" s="9"/>
-      <c r="I96" s="0"/>
-    </row>
-    <row r="97" spans="1:9" ht="144" customHeight="1">
-      <c r="A97" s="7" t="s">
+    </row>
+    <row r="97" spans="1:8" ht="144" customHeight="1">
+      <c r="A97" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="7" t="s">
         <v>211</v>
       </c>
       <c r="H97" s="9"/>
-      <c r="I97" s="0"/>
-    </row>
-    <row r="98" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="98" spans="1:8" ht="58" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -7604,38 +7331,36 @@
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="0"/>
-    </row>
-    <row r="99" spans="1:9" ht="247" customHeight="1">
-      <c r="A99" s="7" t="s">
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8" ht="247" customHeight="1">
+      <c r="A99" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="4" t="s">
         <v>215</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>216</v>
       </c>
       <c r="H99" s="11"/>
-      <c r="I99" s="0"/>
-    </row>
-    <row r="100" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="100" spans="1:8" ht="58" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -7654,63 +7379,60 @@
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="4"/>
-      <c r="I100" s="0"/>
-    </row>
-    <row r="101" spans="1:9" ht="162" customHeight="1">
-      <c r="A101" s="7" t="s">
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" ht="162" customHeight="1">
+      <c r="A101" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="4" t="s">
         <v>116</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H101" s="11"/>
-      <c r="I101" s="0"/>
-    </row>
-    <row r="102" spans="1:9" ht="162" customHeight="1">
-      <c r="A102" s="7" t="s">
+    </row>
+    <row r="102" spans="1:8" ht="162" customHeight="1">
+      <c r="A102" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>115</v>
       </c>
       <c r="H102" s="11"/>
-      <c r="I102" s="0"/>
-    </row>
-    <row r="103" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="103" spans="1:8" ht="58" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -7729,63 +7451,60 @@
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H103" s="4"/>
-      <c r="I103" s="0"/>
-    </row>
-    <row r="104" spans="1:9" ht="154" customHeight="1">
-      <c r="A104" s="7" t="s">
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" ht="154" customHeight="1">
+      <c r="A104" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="7" t="s">
         <v>223</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="0"/>
-    </row>
-    <row r="105" spans="1:9" ht="153" customHeight="1">
-      <c r="A105" s="7" t="s">
+    </row>
+    <row r="105" spans="1:8" ht="153" customHeight="1">
+      <c r="A105" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="7" t="s">
         <v>228</v>
       </c>
       <c r="H105" s="9"/>
-      <c r="I105" s="0"/>
-    </row>
-    <row r="106" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="106" spans="1:8" ht="58" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -7804,63 +7523,60 @@
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="0"/>
-    </row>
-    <row r="107" spans="1:9" ht="154" customHeight="1">
-      <c r="A107" s="7" t="s">
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" ht="154" customHeight="1">
+      <c r="A107" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="G107" s="7" t="s">
         <v>233</v>
       </c>
       <c r="H107" s="9"/>
-      <c r="I107" s="0"/>
-    </row>
-    <row r="108" spans="1:9" ht="136" customHeight="1">
-      <c r="A108" s="7" t="s">
+    </row>
+    <row r="108" spans="1:8" ht="136" customHeight="1">
+      <c r="A108" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="7" t="s">
         <v>237</v>
       </c>
       <c r="H108" s="9"/>
-      <c r="I108" s="0"/>
-    </row>
-    <row r="109" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="109" spans="1:8" ht="58" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -7879,63 +7595,60 @@
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H109" s="4"/>
-      <c r="I109" s="0"/>
-    </row>
-    <row r="110" spans="1:9" ht="171" customHeight="1">
-      <c r="A110" s="7" t="s">
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" ht="171" customHeight="1">
+      <c r="A110" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="7" t="s">
         <v>241</v>
       </c>
       <c r="H110" s="9"/>
-      <c r="I110" s="0"/>
-    </row>
-    <row r="111" spans="1:9" ht="162" customHeight="1">
-      <c r="A111" s="7" t="s">
+    </row>
+    <row r="111" spans="1:8" ht="162" customHeight="1">
+      <c r="A111" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="4" t="s">
         <v>247</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>246</v>
       </c>
       <c r="H111" s="11"/>
-      <c r="I111" s="0"/>
-    </row>
-    <row r="112" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="112" spans="1:8" ht="58" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
@@ -7954,63 +7667,60 @@
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="4"/>
-      <c r="I112" s="0"/>
-    </row>
-    <row r="113" spans="1:9" ht="162" customHeight="1">
-      <c r="A113" s="7" t="s">
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" ht="162" customHeight="1">
+      <c r="A113" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="4" t="s">
         <v>250</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>249</v>
       </c>
       <c r="H113" s="11"/>
-      <c r="I113" s="0"/>
-    </row>
-    <row r="114" spans="1:9" ht="162" customHeight="1">
-      <c r="A114" s="7" t="s">
+    </row>
+    <row r="114" spans="1:8" ht="162" customHeight="1">
+      <c r="A114" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>252</v>
       </c>
       <c r="H114" s="11"/>
-      <c r="I114" s="0"/>
-    </row>
-    <row r="115" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="115" spans="1:8" ht="58" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -8029,63 +7739,60 @@
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G115" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H115" s="4"/>
-      <c r="I115" s="0"/>
-    </row>
-    <row r="116" spans="1:9" ht="154" customHeight="1">
-      <c r="A116" s="7" t="s">
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" ht="154" customHeight="1">
+      <c r="A116" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="7" t="s">
         <v>257</v>
       </c>
       <c r="H116" s="9"/>
-      <c r="I116" s="0"/>
-    </row>
-    <row r="117" spans="1:9" ht="162" customHeight="1">
-      <c r="A117" s="7" t="s">
+    </row>
+    <row r="117" spans="1:8" ht="162" customHeight="1">
+      <c r="A117" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>260</v>
       </c>
       <c r="H117" s="11"/>
-      <c r="I117" s="0"/>
-    </row>
-    <row r="118" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="118" spans="1:8" ht="58" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
@@ -8104,63 +7811,60 @@
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="4"/>
-      <c r="I118" s="0"/>
-    </row>
-    <row r="119" spans="1:9" ht="145" customHeight="1">
-      <c r="A119" s="7" t="s">
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" ht="145" customHeight="1">
+      <c r="A119" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G119" s="5" t="s">
+      <c r="G119" s="7" t="s">
         <v>264</v>
       </c>
       <c r="H119" s="9"/>
-      <c r="I119" s="0"/>
-    </row>
-    <row r="120" spans="1:9" ht="144" customHeight="1">
-      <c r="A120" s="7" t="s">
+    </row>
+    <row r="120" spans="1:8" ht="144" customHeight="1">
+      <c r="A120" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G120" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H120" s="9"/>
-      <c r="I120" s="0"/>
-    </row>
-    <row r="121" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="121" spans="1:8" ht="58" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -8179,63 +7883,60 @@
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H121" s="4"/>
-      <c r="I121" s="0"/>
-    </row>
-    <row r="122" spans="1:9" ht="145" customHeight="1">
-      <c r="A122" s="7" t="s">
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" ht="145" customHeight="1">
+      <c r="A122" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="G122" s="7" t="s">
         <v>270</v>
       </c>
       <c r="H122" s="9"/>
-      <c r="I122" s="0"/>
-    </row>
-    <row r="123" spans="1:9" ht="144" customHeight="1">
-      <c r="A123" s="7" t="s">
+    </row>
+    <row r="123" spans="1:8" ht="144" customHeight="1">
+      <c r="A123" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="G123" s="7" t="s">
         <v>274</v>
       </c>
       <c r="H123" s="9"/>
-      <c r="I123" s="0"/>
-    </row>
-    <row r="124" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="124" spans="1:8" ht="58" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
@@ -8254,63 +7955,60 @@
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H124" s="4"/>
-      <c r="I124" s="0"/>
-    </row>
-    <row r="125" spans="1:9" ht="154" customHeight="1">
-      <c r="A125" s="7" t="s">
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8" ht="154" customHeight="1">
+      <c r="A125" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G125" s="10" t="s">
         <v>277</v>
       </c>
       <c r="H125" s="11"/>
-      <c r="I125" s="0"/>
-    </row>
-    <row r="126" spans="1:9" ht="162" customHeight="1">
-      <c r="A126" s="7" t="s">
+    </row>
+    <row r="126" spans="1:8" ht="162" customHeight="1">
+      <c r="A126" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G126" s="10" t="s">
         <v>281</v>
       </c>
       <c r="H126" s="11"/>
-      <c r="I126" s="0"/>
-    </row>
-    <row r="127" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="127" spans="1:8" ht="58" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -8329,63 +8027,60 @@
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H127" s="4"/>
-      <c r="I127" s="0"/>
-    </row>
-    <row r="128" spans="1:9" ht="162" customHeight="1">
-      <c r="A128" s="7" t="s">
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:8" ht="162" customHeight="1">
+      <c r="A128" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="7" t="s">
         <v>274</v>
       </c>
       <c r="H128" s="9"/>
-      <c r="I128" s="0"/>
-    </row>
-    <row r="129" spans="1:9" ht="170" customHeight="1">
-      <c r="A129" s="7" t="s">
+    </row>
+    <row r="129" spans="1:8" ht="170" customHeight="1">
+      <c r="A129" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G129" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H129" s="9"/>
-      <c r="I129" s="0"/>
-    </row>
-    <row r="130" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="130" spans="1:8" ht="58" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -8404,63 +8099,60 @@
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H130" s="4"/>
-      <c r="I130" s="0"/>
-    </row>
-    <row r="131" spans="1:9" ht="171" customHeight="1">
-      <c r="A131" s="7" t="s">
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" ht="171" customHeight="1">
+      <c r="A131" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G131" s="5" t="s">
+      <c r="G131" s="7" t="s">
         <v>241</v>
       </c>
       <c r="H131" s="9"/>
-      <c r="I131" s="0"/>
-    </row>
-    <row r="132" spans="1:9" ht="162" customHeight="1">
-      <c r="A132" s="7" t="s">
+    </row>
+    <row r="132" spans="1:8" ht="162" customHeight="1">
+      <c r="A132" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G132" s="5" t="s">
+      <c r="G132" s="7" t="s">
         <v>294</v>
       </c>
       <c r="H132" s="9"/>
-      <c r="I132" s="0"/>
-    </row>
-    <row r="133" spans="1:9" ht="58" customHeight="1">
+    </row>
+    <row r="133" spans="1:8" ht="58" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
@@ -8479,98 +8171,157 @@
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H133" s="4"/>
-      <c r="I133" s="0"/>
-    </row>
-    <row r="134" spans="1:9" ht="171" customHeight="1">
-      <c r="A134" s="7" t="s">
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" ht="171" customHeight="1">
+      <c r="A134" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G134" s="7" t="s">
         <v>241</v>
       </c>
       <c r="H134" s="9"/>
-      <c r="I134" s="0"/>
-    </row>
-    <row r="135" spans="1:9" ht="9" customHeight="1">
-      <c r="A135" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="B135" s="0"/>
-      <c r="C135" s="0"/>
-      <c r="D135" s="0"/>
-      <c r="E135" s="0"/>
-      <c r="F135" s="0"/>
-      <c r="G135" s="0"/>
-      <c r="H135" s="0"/>
-      <c r="I135" s="0"/>
-    </row>
-    <row r="136" spans="1:9" ht="58" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="0"/>
-      <c r="I136" s="0"/>
-    </row>
-    <row r="137" spans="1:9" ht="8" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="0"/>
-      <c r="I137" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="129">
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="G8:H8"/>
@@ -8580,129 +8331,12 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F137:G137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>